--- a/biology/Botanique/Haramonadaceae/Haramonadaceae.xlsx
+++ b/biology/Botanique/Haramonadaceae/Haramonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haramonadaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Raphidophyceae et de l’ordre des Chattonellales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient de l’ancien genre type Haramonas, dérivé du préfixe latin hara, « abris pour les animaux », et du suffixe latin monas, issu du grec et μονασ / monas, « seul, solitaire, isolé ».
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (4 mars 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (4 mars 2022) :
 Aucun taxon subordonné.
 </t>
         </is>
@@ -600,9 +618,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2015, Kawai et Nakayama classent l'ancien genre type Haramonas dans  la famille des Vacuolariaceae[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2015, Kawai et Nakayama classent l'ancien genre type Haramonas dans  la famille des Vacuolariaceae.
 </t>
         </is>
       </c>
